--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829EF338-951E-4639-843C-F6D18C27E597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A51B24C-5E3B-45F2-81F9-8CE98C7F6EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Plan" sheetId="2" r:id="rId1"/>
@@ -863,11 +863,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -920,8 +917,11 @@
     <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1178,8 +1178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1193,117 +1193,118 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="20.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="32" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="33" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="32" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="13" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="33" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="32" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="33" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20.25">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="32" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="33" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="20.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="32" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="33" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="13" customFormat="1" ht="20.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="32" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="13" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="33" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="20.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="32" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="33" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="20.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="32" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="33" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="20.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="32" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="33" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="20.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="32" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="33" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20.25">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="32" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="33" t="s">
         <v>179</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1314,7 +1315,7 @@
   </sheetPr>
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
@@ -1330,90 +1331,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="12.75">
-      <c r="A4" s="31"/>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
     </row>
     <row r="6" spans="1:7" ht="12.75">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" ht="12.75">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="27"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
     </row>
     <row r="8" spans="1:7" ht="12.75">
-      <c r="A8" s="20"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
@@ -1426,7 +1427,7 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="12.75">
-      <c r="A9" s="20"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="10" t="s">
@@ -1439,7 +1440,7 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="25.5">
-      <c r="A10" s="20"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="10" t="s">
@@ -1452,7 +1453,7 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12.75">
-      <c r="A11" s="20"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
@@ -1465,7 +1466,7 @@
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="12.75">
-      <c r="A12" s="20"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
@@ -1478,7 +1479,7 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="12.75">
-      <c r="A13" s="20"/>
+      <c r="A13" s="19"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="10" t="s">
@@ -1491,20 +1492,20 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="12.75">
-      <c r="A14" s="20"/>
+      <c r="A14" s="19"/>
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="12.75">
-      <c r="A15" s="20"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
@@ -1517,7 +1518,7 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="12.75">
-      <c r="A16" s="20"/>
+      <c r="A16" s="19"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="10" t="s">
@@ -1530,7 +1531,7 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="25.5">
-      <c r="A17" s="20"/>
+      <c r="A17" s="19"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="10" t="s">
@@ -1543,7 +1544,7 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="12.75">
-      <c r="A18" s="20"/>
+      <c r="A18" s="19"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="10" t="s">
@@ -1556,7 +1557,7 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="20"/>
+      <c r="A19" s="19"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="10" t="s">
@@ -1569,20 +1570,20 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="20"/>
+      <c r="A20" s="19"/>
       <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="20"/>
+      <c r="A21" s="19"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
@@ -1595,7 +1596,7 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="20"/>
+      <c r="A22" s="19"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="10" t="s">
@@ -1608,7 +1609,7 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="25.5">
-      <c r="A23" s="20"/>
+      <c r="A23" s="19"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="10" t="s">
@@ -1621,7 +1622,7 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="20"/>
+      <c r="A24" s="19"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="10" t="s">
@@ -1634,7 +1635,7 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="21"/>
+      <c r="A25" s="20"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="10" t="s">
@@ -1647,22 +1648,22 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="18"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="20"/>
+      <c r="A27" s="19"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
@@ -1675,21 +1676,21 @@
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="20"/>
+      <c r="A28" s="19"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="25.5">
-      <c r="A29" s="20"/>
+      <c r="A29" s="19"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="14" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="11" t="s">
@@ -1699,7 +1700,7 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="20"/>
+      <c r="A30" s="19"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="10" t="s">
@@ -1712,20 +1713,20 @@
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="20"/>
+      <c r="A31" s="19"/>
       <c r="B31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="16" t="s">
+      <c r="C31" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="18"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="20"/>
+      <c r="A32" s="19"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
@@ -1738,23 +1739,23 @@
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="12.75">
-      <c r="A33" s="20"/>
+      <c r="A33" s="19"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="25.5">
-      <c r="A34" s="20"/>
+      <c r="A34" s="19"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="14" t="s">
         <v>41</v>
       </c>
       <c r="E34" s="11" t="s">
@@ -1764,7 +1765,7 @@
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="25.5">
-      <c r="A35" s="20"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="10" t="s">
@@ -1777,7 +1778,7 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="12.75">
-      <c r="A36" s="20"/>
+      <c r="A36" s="19"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="10" t="s">
@@ -1790,20 +1791,20 @@
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="20"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="18"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
     </row>
     <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="20"/>
+      <c r="A38" s="19"/>
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9" t="s">
@@ -1816,7 +1817,7 @@
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="12.75">
-      <c r="A39" s="20"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="10" t="s">
@@ -1829,7 +1830,7 @@
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" ht="12.75">
-      <c r="A40" s="20"/>
+      <c r="A40" s="19"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="10" t="s">
@@ -1842,7 +1843,7 @@
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="20"/>
+      <c r="A41" s="19"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="10" t="s">
@@ -1855,7 +1856,7 @@
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" ht="25.5">
-      <c r="A42" s="20"/>
+      <c r="A42" s="19"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
       <c r="D42" s="10" t="s">
@@ -1868,7 +1869,7 @@
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="20"/>
+      <c r="A43" s="19"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9" t="s">
@@ -1881,20 +1882,20 @@
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" ht="12.75">
-      <c r="A44" s="20"/>
+      <c r="A44" s="19"/>
       <c r="B44" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C44" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="18"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
     </row>
     <row r="45" spans="1:7" ht="12.75">
-      <c r="A45" s="20"/>
+      <c r="A45" s="19"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9" t="s">
@@ -1907,7 +1908,7 @@
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="12.75">
-      <c r="A46" s="20"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
       <c r="D46" s="10" t="s">
@@ -1920,7 +1921,7 @@
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="20"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="10" t="s">
@@ -1933,7 +1934,7 @@
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" ht="25.5">
-      <c r="A48" s="20"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="10" t="s">
@@ -1946,7 +1947,7 @@
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" ht="12.75">
-      <c r="A49" s="20"/>
+      <c r="A49" s="19"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="10" t="s">
@@ -1959,7 +1960,7 @@
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="12.75">
-      <c r="A50" s="21"/>
+      <c r="A50" s="20"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
       <c r="D50" s="10" t="s">
@@ -1972,22 +1973,22 @@
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="27"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:7" ht="12.75">
-      <c r="A52" s="23"/>
+      <c r="A52" s="22"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
       <c r="D52" s="9" t="s">
@@ -2000,7 +2001,7 @@
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" ht="38.25">
-      <c r="A53" s="23"/>
+      <c r="A53" s="22"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
       <c r="D53" s="10" t="s">
@@ -2013,7 +2014,7 @@
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="51">
-      <c r="A54" s="23"/>
+      <c r="A54" s="22"/>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="10" t="s">
@@ -2026,7 +2027,7 @@
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" ht="12.75">
-      <c r="A55" s="23"/>
+      <c r="A55" s="22"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
       <c r="D55" s="10" t="s">
@@ -2039,20 +2040,20 @@
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A56" s="23"/>
+      <c r="A56" s="22"/>
       <c r="B56" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="25" t="s">
+      <c r="C56" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="27"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="26"/>
     </row>
     <row r="57" spans="1:7" ht="12.75">
-      <c r="A57" s="23"/>
+      <c r="A57" s="22"/>
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
       <c r="D57" s="9" t="s">
@@ -2065,7 +2066,7 @@
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" ht="12.75">
-      <c r="A58" s="23"/>
+      <c r="A58" s="22"/>
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
       <c r="D58" s="10" t="s">
@@ -2078,7 +2079,7 @@
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" ht="12.75">
-      <c r="A59" s="23"/>
+      <c r="A59" s="22"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
       <c r="D59" s="10" t="s">
@@ -2091,7 +2092,7 @@
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" ht="12.75">
-      <c r="A60" s="23"/>
+      <c r="A60" s="22"/>
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
       <c r="D60" s="10" t="s">
@@ -2104,7 +2105,7 @@
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" ht="51">
-      <c r="A61" s="23"/>
+      <c r="A61" s="22"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="9" t="s">
@@ -2117,7 +2118,7 @@
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" ht="12.75">
-      <c r="A62" s="23"/>
+      <c r="A62" s="22"/>
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
       <c r="D62" s="9" t="s">
@@ -2128,7 +2129,7 @@
       <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" ht="12.75">
-      <c r="A63" s="23"/>
+      <c r="A63" s="22"/>
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
       <c r="D63" s="9" t="s">
@@ -2141,20 +2142,20 @@
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" ht="12.75">
-      <c r="A64" s="23"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="18"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="17"/>
     </row>
     <row r="65" spans="1:7" ht="12.75">
-      <c r="A65" s="23"/>
+      <c r="A65" s="22"/>
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
       <c r="D65" s="9" t="s">
@@ -2167,7 +2168,7 @@
       <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" ht="12.75">
-      <c r="A66" s="23"/>
+      <c r="A66" s="22"/>
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
       <c r="D66" s="10" t="s">
@@ -2180,7 +2181,7 @@
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" ht="25.5">
-      <c r="A67" s="23"/>
+      <c r="A67" s="22"/>
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
       <c r="D67" s="10" t="s">
@@ -2193,7 +2194,7 @@
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" ht="12.75">
-      <c r="A68" s="23"/>
+      <c r="A68" s="22"/>
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
       <c r="D68" s="10" t="s">
@@ -2206,7 +2207,7 @@
       <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7" ht="12.75">
-      <c r="A69" s="23"/>
+      <c r="A69" s="22"/>
       <c r="B69" s="7"/>
       <c r="C69" s="8"/>
       <c r="D69" s="9" t="s">
@@ -2219,20 +2220,20 @@
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" ht="12.75">
-      <c r="A70" s="23"/>
+      <c r="A70" s="22"/>
       <c r="B70" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C70" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="18"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="17"/>
     </row>
     <row r="71" spans="1:7" ht="12.75">
-      <c r="A71" s="23"/>
+      <c r="A71" s="22"/>
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="9" t="s">
@@ -2245,7 +2246,7 @@
       <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" ht="12.75">
-      <c r="A72" s="23"/>
+      <c r="A72" s="22"/>
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
       <c r="D72" s="10" t="s">
@@ -2258,7 +2259,7 @@
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" ht="38.25">
-      <c r="A73" s="23"/>
+      <c r="A73" s="22"/>
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
       <c r="D73" s="10" t="s">
@@ -2271,7 +2272,7 @@
       <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" ht="12.75">
-      <c r="A74" s="23"/>
+      <c r="A74" s="22"/>
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
       <c r="D74" s="10" t="s">
@@ -2284,7 +2285,7 @@
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" ht="12.75">
-      <c r="A75" s="23"/>
+      <c r="A75" s="22"/>
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
       <c r="D75" s="9" t="s">
@@ -2297,20 +2298,20 @@
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="12.75">
-      <c r="A76" s="23"/>
+      <c r="A76" s="22"/>
       <c r="B76" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="16" t="s">
+      <c r="C76" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="18"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="17"/>
     </row>
     <row r="77" spans="1:7" ht="12.75">
-      <c r="A77" s="23"/>
+      <c r="A77" s="22"/>
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
       <c r="D77" s="9" t="s">
@@ -2323,7 +2324,7 @@
       <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" ht="12.75">
-      <c r="A78" s="23"/>
+      <c r="A78" s="22"/>
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
       <c r="D78" s="10" t="s">
@@ -2336,7 +2337,7 @@
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" ht="12.75">
-      <c r="A79" s="23"/>
+      <c r="A79" s="22"/>
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
       <c r="D79" s="10" t="s">
@@ -2349,7 +2350,7 @@
       <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" ht="12.75">
-      <c r="A80" s="23"/>
+      <c r="A80" s="22"/>
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
       <c r="D80" s="10" t="s">
@@ -2362,7 +2363,7 @@
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" ht="12.75">
-      <c r="A81" s="23"/>
+      <c r="A81" s="22"/>
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
       <c r="D81" s="9" t="s">
@@ -2375,7 +2376,7 @@
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" ht="12.75">
-      <c r="A82" s="23"/>
+      <c r="A82" s="22"/>
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
       <c r="D82" s="9" t="s">
@@ -2388,7 +2389,7 @@
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" ht="12.75">
-      <c r="A83" s="23"/>
+      <c r="A83" s="22"/>
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
       <c r="D83" s="9" t="s">
@@ -2401,7 +2402,7 @@
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" ht="12.75">
-      <c r="A84" s="23"/>
+      <c r="A84" s="22"/>
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
       <c r="D84" s="9" t="s">
@@ -2414,7 +2415,7 @@
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" ht="12.75">
-      <c r="A85" s="23"/>
+      <c r="A85" s="22"/>
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
       <c r="D85" s="9" t="s">
@@ -2427,7 +2428,7 @@
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" ht="12.75">
-      <c r="A86" s="23"/>
+      <c r="A86" s="22"/>
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
       <c r="D86" s="9" t="s">
@@ -2440,7 +2441,7 @@
       <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" ht="12.75">
-      <c r="A87" s="23"/>
+      <c r="A87" s="22"/>
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
       <c r="D87" s="9" t="s">
@@ -2453,7 +2454,7 @@
       <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" ht="25.5">
-      <c r="A88" s="23"/>
+      <c r="A88" s="22"/>
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
       <c r="D88" s="9" t="s">
@@ -2466,7 +2467,7 @@
       <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" ht="12.75">
-      <c r="A89" s="23"/>
+      <c r="A89" s="22"/>
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
       <c r="D89" s="9" t="s">
@@ -2479,7 +2480,7 @@
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" ht="12.75">
-      <c r="A90" s="23"/>
+      <c r="A90" s="22"/>
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
       <c r="D90" s="9" t="s">
@@ -2492,7 +2493,7 @@
       <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" ht="12.75">
-      <c r="A91" s="24"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
       <c r="D91" s="9" t="s">
@@ -2505,22 +2506,22 @@
       <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" ht="12.75">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="21" t="s">
         <v>117</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="18"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="17"/>
     </row>
     <row r="93" spans="1:7" ht="12.75">
-      <c r="A93" s="23"/>
+      <c r="A93" s="22"/>
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
       <c r="D93" s="9" t="s">
@@ -2533,7 +2534,7 @@
       <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" ht="12.75">
-      <c r="A94" s="23"/>
+      <c r="A94" s="22"/>
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
       <c r="D94" s="10" t="s">
@@ -2546,7 +2547,7 @@
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" ht="12.75">
-      <c r="A95" s="23"/>
+      <c r="A95" s="22"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
       <c r="D95" s="10" t="s">
@@ -2559,7 +2560,7 @@
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" ht="12.75">
-      <c r="A96" s="23"/>
+      <c r="A96" s="22"/>
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
       <c r="D96" s="10" t="s">
@@ -2572,7 +2573,7 @@
       <c r="G96" s="10"/>
     </row>
     <row r="97" spans="1:7" ht="12.75">
-      <c r="A97" s="23"/>
+      <c r="A97" s="22"/>
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
       <c r="D97" s="9" t="s">
@@ -2585,7 +2586,7 @@
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" ht="25.5">
-      <c r="A98" s="23"/>
+      <c r="A98" s="22"/>
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
       <c r="D98" s="9" t="s">
@@ -2598,7 +2599,7 @@
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" ht="12.75">
-      <c r="A99" s="23"/>
+      <c r="A99" s="22"/>
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
@@ -2611,7 +2612,7 @@
       <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7" ht="12.75">
-      <c r="A100" s="23"/>
+      <c r="A100" s="22"/>
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
       <c r="D100" s="9" t="s">
@@ -2624,7 +2625,7 @@
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="1:7" ht="25.5">
-      <c r="A101" s="23"/>
+      <c r="A101" s="22"/>
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
       <c r="D101" s="9" t="s">
@@ -2637,7 +2638,7 @@
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:7" ht="12.75">
-      <c r="A102" s="23"/>
+      <c r="A102" s="22"/>
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
       <c r="D102" s="9" t="s">
@@ -2648,7 +2649,7 @@
       <c r="G102" s="10"/>
     </row>
     <row r="103" spans="1:7" ht="25.5">
-      <c r="A103" s="23"/>
+      <c r="A103" s="22"/>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
       <c r="D103" s="9" t="s">
@@ -2661,7 +2662,7 @@
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="1:7" ht="25.5">
-      <c r="A104" s="23"/>
+      <c r="A104" s="22"/>
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
       <c r="D104" s="9" t="s">
@@ -2674,7 +2675,7 @@
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="1:7" ht="25.5">
-      <c r="A105" s="23"/>
+      <c r="A105" s="22"/>
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
       <c r="D105" s="9" t="s">
@@ -2687,7 +2688,7 @@
       <c r="G105" s="10"/>
     </row>
     <row r="106" spans="1:7" ht="12.75">
-      <c r="A106" s="23"/>
+      <c r="A106" s="22"/>
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
       <c r="D106" s="9" t="s">
@@ -2700,7 +2701,7 @@
       <c r="G106" s="10"/>
     </row>
     <row r="107" spans="1:7" ht="25.5">
-      <c r="A107" s="23"/>
+      <c r="A107" s="22"/>
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
       <c r="D107" s="9" t="s">
@@ -2713,7 +2714,7 @@
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:7" ht="12.75">
-      <c r="A108" s="23"/>
+      <c r="A108" s="22"/>
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
       <c r="D108" s="9" t="s">
@@ -2724,7 +2725,7 @@
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:7" ht="12.75">
-      <c r="A109" s="23"/>
+      <c r="A109" s="22"/>
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
       <c r="D109" s="9" t="s">
@@ -2737,20 +2738,20 @@
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:7" ht="12.75">
-      <c r="A110" s="23"/>
+      <c r="A110" s="22"/>
       <c r="B110" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C110" s="16" t="s">
+      <c r="C110" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="18"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="17"/>
     </row>
     <row r="111" spans="1:7" ht="12.75">
-      <c r="A111" s="23"/>
+      <c r="A111" s="22"/>
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
       <c r="D111" s="9" t="s">
@@ -2763,7 +2764,7 @@
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" ht="12.75">
-      <c r="A112" s="23"/>
+      <c r="A112" s="22"/>
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
       <c r="D112" s="10" t="s">
@@ -2776,7 +2777,7 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:7" ht="12.75">
-      <c r="A113" s="23"/>
+      <c r="A113" s="22"/>
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
       <c r="D113" s="9" t="s">
@@ -2789,7 +2790,7 @@
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7" ht="12.75">
-      <c r="A114" s="23"/>
+      <c r="A114" s="22"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
       <c r="D114" s="9" t="s">
@@ -2802,7 +2803,7 @@
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7" ht="25.5">
-      <c r="A115" s="23"/>
+      <c r="A115" s="22"/>
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="9" t="s">
@@ -2815,7 +2816,7 @@
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="1:7" ht="12.75">
-      <c r="A116" s="23"/>
+      <c r="A116" s="22"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
       <c r="D116" s="9" t="s">
@@ -2828,7 +2829,7 @@
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7" ht="12.75">
-      <c r="A117" s="23"/>
+      <c r="A117" s="22"/>
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
       <c r="D117" s="9" t="s">
@@ -2841,7 +2842,7 @@
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" ht="12.75">
-      <c r="A118" s="23"/>
+      <c r="A118" s="22"/>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
       <c r="D118" s="9" t="s">
@@ -2854,7 +2855,7 @@
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7" ht="12.75">
-      <c r="A119" s="23"/>
+      <c r="A119" s="22"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
       <c r="D119" s="9" t="s">
@@ -2867,7 +2868,7 @@
       <c r="G119" s="10"/>
     </row>
     <row r="120" spans="1:7" ht="12.75">
-      <c r="A120" s="23"/>
+      <c r="A120" s="22"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
       <c r="D120" s="9" t="s">
@@ -2880,7 +2881,7 @@
       <c r="G120" s="10"/>
     </row>
     <row r="121" spans="1:7" ht="12.75">
-      <c r="A121" s="23"/>
+      <c r="A121" s="22"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
       <c r="D121" s="9" t="s">
@@ -2891,7 +2892,7 @@
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:7" ht="12.75">
-      <c r="A122" s="23"/>
+      <c r="A122" s="22"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
       <c r="D122" s="9" t="s">
@@ -2904,7 +2905,7 @@
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:7" ht="12.75">
-      <c r="A123" s="23"/>
+      <c r="A123" s="22"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
       <c r="D123" s="9" t="s">

--- a/Test Plan.xlsx
+++ b/Test Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test-plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A51B24C-5E3B-45F2-81F9-8CE98C7F6EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0A86C2-1294-4F59-A785-BE8A20A276C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,6 +866,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -874,6 +880,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
@@ -901,27 +922,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1178,9 +1178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1193,112 +1191,112 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="20.25">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="15" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="15" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="13" customFormat="1" ht="47.25" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="16" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="20.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="15" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="16" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="20.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="15" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="16" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="20.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="15" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="16" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:1" s="13" customFormat="1" ht="20.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="15" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:1" s="13" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A13" s="33" t="s">
+      <c r="A13" s="16" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="20.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="15" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="16" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="20.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="15" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="20.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" s="15" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="16" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="20.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="15" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="15" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="23" spans="1:1" s="13" customFormat="1" ht="27" customHeight="1">
-      <c r="A23" s="33" t="s">
+      <c r="A23" s="16" t="s">
         <v>179</v>
       </c>
     </row>
@@ -1316,7 +1314,7 @@
   <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+      <selection activeCell="A51" sqref="A51:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -1331,90 +1329,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="22" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
     </row>
     <row r="4" spans="1:7" ht="12.75">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="12.75">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="12.75">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
     </row>
     <row r="7" spans="1:7" ht="12.75">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="33"/>
     </row>
     <row r="8" spans="1:7" ht="12.75">
-      <c r="A8" s="19"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="7"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9" t="s">
@@ -1427,7 +1425,7 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" ht="12.75">
-      <c r="A9" s="19"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="7"/>
       <c r="C9" s="8"/>
       <c r="D9" s="10" t="s">
@@ -1440,7 +1438,7 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:7" ht="25.5">
-      <c r="A10" s="19"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="7"/>
       <c r="C10" s="8"/>
       <c r="D10" s="10" t="s">
@@ -1453,7 +1451,7 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="1:7" ht="12.75">
-      <c r="A11" s="19"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
       <c r="D11" s="10" t="s">
@@ -1466,7 +1464,7 @@
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="1:7" ht="12.75">
-      <c r="A12" s="19"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
       <c r="D12" s="10" t="s">
@@ -1479,7 +1477,7 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="1:7" ht="12.75">
-      <c r="A13" s="19"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
       <c r="D13" s="10" t="s">
@@ -1492,20 +1490,20 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="1:7" ht="12.75">
-      <c r="A14" s="19"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" ht="12.75">
-      <c r="A15" s="19"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="7"/>
       <c r="C15" s="8"/>
       <c r="D15" s="9" t="s">
@@ -1518,7 +1516,7 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="1:7" ht="12.75">
-      <c r="A16" s="19"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
       <c r="D16" s="10" t="s">
@@ -1531,7 +1529,7 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="1:7" ht="25.5">
-      <c r="A17" s="19"/>
+      <c r="A17" s="26"/>
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
       <c r="D17" s="10" t="s">
@@ -1544,7 +1542,7 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="1:7" ht="12.75">
-      <c r="A18" s="19"/>
+      <c r="A18" s="26"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
       <c r="D18" s="10" t="s">
@@ -1557,7 +1555,7 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="1:7" ht="12.75">
-      <c r="A19" s="19"/>
+      <c r="A19" s="26"/>
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
       <c r="D19" s="10" t="s">
@@ -1570,20 +1568,20 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="1:7" ht="12.75">
-      <c r="A20" s="19"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="33"/>
     </row>
     <row r="21" spans="1:7" ht="12.75">
-      <c r="A21" s="19"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="7"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9" t="s">
@@ -1596,7 +1594,7 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="1:7" ht="12.75">
-      <c r="A22" s="19"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="7"/>
       <c r="C22" s="8"/>
       <c r="D22" s="10" t="s">
@@ -1609,7 +1607,7 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="1:7" ht="25.5">
-      <c r="A23" s="19"/>
+      <c r="A23" s="26"/>
       <c r="B23" s="7"/>
       <c r="C23" s="8"/>
       <c r="D23" s="10" t="s">
@@ -1622,7 +1620,7 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="1:7" ht="12.75">
-      <c r="A24" s="19"/>
+      <c r="A24" s="26"/>
       <c r="B24" s="7"/>
       <c r="C24" s="8"/>
       <c r="D24" s="10" t="s">
@@ -1635,7 +1633,7 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="1:7" ht="12.75">
-      <c r="A25" s="20"/>
+      <c r="A25" s="27"/>
       <c r="B25" s="7"/>
       <c r="C25" s="8"/>
       <c r="D25" s="10" t="s">
@@ -1648,22 +1646,22 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="1:7" ht="12.75">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:7" ht="12.75">
-      <c r="A27" s="19"/>
+      <c r="A27" s="26"/>
       <c r="B27" s="7"/>
       <c r="C27" s="8"/>
       <c r="D27" s="9" t="s">
@@ -1676,7 +1674,7 @@
       <c r="G27" s="10"/>
     </row>
     <row r="28" spans="1:7" ht="12.75">
-      <c r="A28" s="19"/>
+      <c r="A28" s="26"/>
       <c r="B28" s="7"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -1687,7 +1685,7 @@
       <c r="G28" s="10"/>
     </row>
     <row r="29" spans="1:7" ht="25.5">
-      <c r="A29" s="19"/>
+      <c r="A29" s="26"/>
       <c r="B29" s="7"/>
       <c r="C29" s="8"/>
       <c r="D29" s="14" t="s">
@@ -1700,7 +1698,7 @@
       <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" ht="12.75">
-      <c r="A30" s="19"/>
+      <c r="A30" s="26"/>
       <c r="B30" s="7"/>
       <c r="C30" s="8"/>
       <c r="D30" s="10" t="s">
@@ -1713,20 +1711,20 @@
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="12.75">
-      <c r="A31" s="19"/>
+      <c r="A31" s="26"/>
       <c r="B31" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
     </row>
     <row r="32" spans="1:7" ht="12.75">
-      <c r="A32" s="19"/>
+      <c r="A32" s="26"/>
       <c r="B32" s="7"/>
       <c r="C32" s="8"/>
       <c r="D32" s="9" t="s">
@@ -1739,7 +1737,7 @@
       <c r="G32" s="10"/>
     </row>
     <row r="33" spans="1:7" ht="12.75">
-      <c r="A33" s="19"/>
+      <c r="A33" s="26"/>
       <c r="B33" s="7"/>
       <c r="C33" s="8"/>
       <c r="D33" s="10" t="s">
@@ -1752,7 +1750,7 @@
       <c r="G33" s="10"/>
     </row>
     <row r="34" spans="1:7" ht="25.5">
-      <c r="A34" s="19"/>
+      <c r="A34" s="26"/>
       <c r="B34" s="7"/>
       <c r="C34" s="8"/>
       <c r="D34" s="14" t="s">
@@ -1765,7 +1763,7 @@
       <c r="G34" s="10"/>
     </row>
     <row r="35" spans="1:7" ht="25.5">
-      <c r="A35" s="19"/>
+      <c r="A35" s="26"/>
       <c r="B35" s="7"/>
       <c r="C35" s="8"/>
       <c r="D35" s="10" t="s">
@@ -1778,7 +1776,7 @@
       <c r="G35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="12.75">
-      <c r="A36" s="19"/>
+      <c r="A36" s="26"/>
       <c r="B36" s="7"/>
       <c r="C36" s="8"/>
       <c r="D36" s="10" t="s">
@@ -1791,20 +1789,20 @@
       <c r="G36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="19"/>
+      <c r="A37" s="26"/>
       <c r="B37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="19"/>
     </row>
     <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="19"/>
+      <c r="A38" s="26"/>
       <c r="B38" s="7"/>
       <c r="C38" s="8"/>
       <c r="D38" s="9" t="s">
@@ -1817,7 +1815,7 @@
       <c r="G38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="12.75">
-      <c r="A39" s="19"/>
+      <c r="A39" s="26"/>
       <c r="B39" s="7"/>
       <c r="C39" s="8"/>
       <c r="D39" s="10" t="s">
@@ -1830,7 +1828,7 @@
       <c r="G39" s="10"/>
     </row>
     <row r="40" spans="1:7" ht="12.75">
-      <c r="A40" s="19"/>
+      <c r="A40" s="26"/>
       <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="D40" s="10" t="s">
@@ -1843,7 +1841,7 @@
       <c r="G40" s="10"/>
     </row>
     <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="19"/>
+      <c r="A41" s="26"/>
       <c r="B41" s="7"/>
       <c r="C41" s="8"/>
       <c r="D41" s="10" t="s">
@@ -1856,7 +1854,7 @@
       <c r="G41" s="10"/>
     </row>
     <row r="42" spans="1:7" ht="25.5">
-      <c r="A42" s="19"/>
+      <c r="A42" s="26"/>
       <c r="B42" s="7"/>
       <c r="C42" s="8"/>
       <c r="D42" s="10" t="s">
@@ -1869,7 +1867,7 @@
       <c r="G42" s="10"/>
     </row>
     <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="19"/>
+      <c r="A43" s="26"/>
       <c r="B43" s="7"/>
       <c r="C43" s="8"/>
       <c r="D43" s="9" t="s">
@@ -1882,20 +1880,20 @@
       <c r="G43" s="10"/>
     </row>
     <row r="44" spans="1:7" ht="12.75">
-      <c r="A44" s="19"/>
+      <c r="A44" s="26"/>
       <c r="B44" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" spans="1:7" ht="12.75">
-      <c r="A45" s="19"/>
+      <c r="A45" s="26"/>
       <c r="B45" s="7"/>
       <c r="C45" s="8"/>
       <c r="D45" s="9" t="s">
@@ -1908,7 +1906,7 @@
       <c r="G45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="12.75">
-      <c r="A46" s="19"/>
+      <c r="A46" s="26"/>
       <c r="B46" s="7"/>
       <c r="C46" s="8"/>
       <c r="D46" s="10" t="s">
@@ -1921,7 +1919,7 @@
       <c r="G46" s="10"/>
     </row>
     <row r="47" spans="1:7" ht="12.75">
-      <c r="A47" s="19"/>
+      <c r="A47" s="26"/>
       <c r="B47" s="7"/>
       <c r="C47" s="8"/>
       <c r="D47" s="10" t="s">
@@ -1934,7 +1932,7 @@
       <c r="G47" s="10"/>
     </row>
     <row r="48" spans="1:7" ht="25.5">
-      <c r="A48" s="19"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="7"/>
       <c r="C48" s="8"/>
       <c r="D48" s="10" t="s">
@@ -1947,7 +1945,7 @@
       <c r="G48" s="10"/>
     </row>
     <row r="49" spans="1:7" ht="12.75">
-      <c r="A49" s="19"/>
+      <c r="A49" s="26"/>
       <c r="B49" s="7"/>
       <c r="C49" s="8"/>
       <c r="D49" s="10" t="s">
@@ -1960,7 +1958,7 @@
       <c r="G49" s="10"/>
     </row>
     <row r="50" spans="1:7" ht="12.75">
-      <c r="A50" s="20"/>
+      <c r="A50" s="27"/>
       <c r="B50" s="7"/>
       <c r="C50" s="8"/>
       <c r="D50" s="10" t="s">
@@ -1973,22 +1971,22 @@
       <c r="G50" s="10"/>
     </row>
     <row r="51" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="28" t="s">
         <v>62</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="26"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="33"/>
     </row>
     <row r="52" spans="1:7" ht="12.75">
-      <c r="A52" s="22"/>
+      <c r="A52" s="29"/>
       <c r="B52" s="7"/>
       <c r="C52" s="8"/>
       <c r="D52" s="9" t="s">
@@ -2001,7 +1999,7 @@
       <c r="G52" s="10"/>
     </row>
     <row r="53" spans="1:7" ht="38.25">
-      <c r="A53" s="22"/>
+      <c r="A53" s="29"/>
       <c r="B53" s="7"/>
       <c r="C53" s="8"/>
       <c r="D53" s="10" t="s">
@@ -2014,7 +2012,7 @@
       <c r="G53" s="10"/>
     </row>
     <row r="54" spans="1:7" ht="51">
-      <c r="A54" s="22"/>
+      <c r="A54" s="29"/>
       <c r="B54" s="7"/>
       <c r="C54" s="8"/>
       <c r="D54" s="10" t="s">
@@ -2027,7 +2025,7 @@
       <c r="G54" s="10"/>
     </row>
     <row r="55" spans="1:7" ht="12.75">
-      <c r="A55" s="22"/>
+      <c r="A55" s="29"/>
       <c r="B55" s="7"/>
       <c r="C55" s="8"/>
       <c r="D55" s="10" t="s">
@@ -2040,20 +2038,20 @@
       <c r="G55" s="10"/>
     </row>
     <row r="56" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A56" s="22"/>
+      <c r="A56" s="29"/>
       <c r="B56" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="26"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="33"/>
     </row>
     <row r="57" spans="1:7" ht="12.75">
-      <c r="A57" s="22"/>
+      <c r="A57" s="29"/>
       <c r="B57" s="7"/>
       <c r="C57" s="8"/>
       <c r="D57" s="9" t="s">
@@ -2066,7 +2064,7 @@
       <c r="G57" s="10"/>
     </row>
     <row r="58" spans="1:7" ht="12.75">
-      <c r="A58" s="22"/>
+      <c r="A58" s="29"/>
       <c r="B58" s="7"/>
       <c r="C58" s="8"/>
       <c r="D58" s="10" t="s">
@@ -2079,7 +2077,7 @@
       <c r="G58" s="10"/>
     </row>
     <row r="59" spans="1:7" ht="12.75">
-      <c r="A59" s="22"/>
+      <c r="A59" s="29"/>
       <c r="B59" s="7"/>
       <c r="C59" s="8"/>
       <c r="D59" s="10" t="s">
@@ -2092,7 +2090,7 @@
       <c r="G59" s="10"/>
     </row>
     <row r="60" spans="1:7" ht="12.75">
-      <c r="A60" s="22"/>
+      <c r="A60" s="29"/>
       <c r="B60" s="7"/>
       <c r="C60" s="8"/>
       <c r="D60" s="10" t="s">
@@ -2105,7 +2103,7 @@
       <c r="G60" s="10"/>
     </row>
     <row r="61" spans="1:7" ht="51">
-      <c r="A61" s="22"/>
+      <c r="A61" s="29"/>
       <c r="B61" s="7"/>
       <c r="C61" s="8"/>
       <c r="D61" s="9" t="s">
@@ -2118,7 +2116,7 @@
       <c r="G61" s="10"/>
     </row>
     <row r="62" spans="1:7" ht="12.75">
-      <c r="A62" s="22"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="7"/>
       <c r="C62" s="8"/>
       <c r="D62" s="9" t="s">
@@ -2129,7 +2127,7 @@
       <c r="G62" s="10"/>
     </row>
     <row r="63" spans="1:7" ht="12.75">
-      <c r="A63" s="22"/>
+      <c r="A63" s="29"/>
       <c r="B63" s="7"/>
       <c r="C63" s="8"/>
       <c r="D63" s="9" t="s">
@@ -2142,20 +2140,20 @@
       <c r="G63" s="10"/>
     </row>
     <row r="64" spans="1:7" ht="12.75">
-      <c r="A64" s="22"/>
+      <c r="A64" s="29"/>
       <c r="B64" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="17"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="19"/>
     </row>
     <row r="65" spans="1:7" ht="12.75">
-      <c r="A65" s="22"/>
+      <c r="A65" s="29"/>
       <c r="B65" s="7"/>
       <c r="C65" s="8"/>
       <c r="D65" s="9" t="s">
@@ -2168,7 +2166,7 @@
       <c r="G65" s="10"/>
     </row>
     <row r="66" spans="1:7" ht="12.75">
-      <c r="A66" s="22"/>
+      <c r="A66" s="29"/>
       <c r="B66" s="7"/>
       <c r="C66" s="8"/>
       <c r="D66" s="10" t="s">
@@ -2181,7 +2179,7 @@
       <c r="G66" s="10"/>
     </row>
     <row r="67" spans="1:7" ht="25.5">
-      <c r="A67" s="22"/>
+      <c r="A67" s="29"/>
       <c r="B67" s="7"/>
       <c r="C67" s="8"/>
       <c r="D67" s="10" t="s">
@@ -2194,7 +2192,7 @@
       <c r="G67" s="10"/>
     </row>
     <row r="68" spans="1:7" ht="12.75">
-      <c r="A68" s="22"/>
+      <c r="A68" s="29"/>
       <c r="B68" s="7"/>
       <c r="C68" s="8"/>
       <c r="D68" s="10" t="s">
@@ -2207,7 +2205,7 @@
       <c r="G68" s="10"/>
     </row>
     <row r="69" spans="1:7" ht="12.75">
-      <c r="A69" s="22"/>
+      <c r="A69" s="29"/>
       <c r="B69" s="7"/>
       <c r="C69" s="8"/>
       <c r="D69" s="9" t="s">
@@ -2220,20 +2218,20 @@
       <c r="G69" s="10"/>
     </row>
     <row r="70" spans="1:7" ht="12.75">
-      <c r="A70" s="22"/>
+      <c r="A70" s="29"/>
       <c r="B70" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C70" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="17"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="19"/>
     </row>
     <row r="71" spans="1:7" ht="12.75">
-      <c r="A71" s="22"/>
+      <c r="A71" s="29"/>
       <c r="B71" s="7"/>
       <c r="C71" s="8"/>
       <c r="D71" s="9" t="s">
@@ -2246,7 +2244,7 @@
       <c r="G71" s="10"/>
     </row>
     <row r="72" spans="1:7" ht="12.75">
-      <c r="A72" s="22"/>
+      <c r="A72" s="29"/>
       <c r="B72" s="7"/>
       <c r="C72" s="8"/>
       <c r="D72" s="10" t="s">
@@ -2259,7 +2257,7 @@
       <c r="G72" s="10"/>
     </row>
     <row r="73" spans="1:7" ht="38.25">
-      <c r="A73" s="22"/>
+      <c r="A73" s="29"/>
       <c r="B73" s="7"/>
       <c r="C73" s="8"/>
       <c r="D73" s="10" t="s">
@@ -2272,7 +2270,7 @@
       <c r="G73" s="10"/>
     </row>
     <row r="74" spans="1:7" ht="12.75">
-      <c r="A74" s="22"/>
+      <c r="A74" s="29"/>
       <c r="B74" s="7"/>
       <c r="C74" s="8"/>
       <c r="D74" s="10" t="s">
@@ -2285,7 +2283,7 @@
       <c r="G74" s="10"/>
     </row>
     <row r="75" spans="1:7" ht="12.75">
-      <c r="A75" s="22"/>
+      <c r="A75" s="29"/>
       <c r="B75" s="7"/>
       <c r="C75" s="8"/>
       <c r="D75" s="9" t="s">
@@ -2298,20 +2296,20 @@
       <c r="G75" s="10"/>
     </row>
     <row r="76" spans="1:7" ht="12.75">
-      <c r="A76" s="22"/>
+      <c r="A76" s="29"/>
       <c r="B76" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C76" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="17"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="19"/>
     </row>
     <row r="77" spans="1:7" ht="12.75">
-      <c r="A77" s="22"/>
+      <c r="A77" s="29"/>
       <c r="B77" s="7"/>
       <c r="C77" s="8"/>
       <c r="D77" s="9" t="s">
@@ -2324,7 +2322,7 @@
       <c r="G77" s="10"/>
     </row>
     <row r="78" spans="1:7" ht="12.75">
-      <c r="A78" s="22"/>
+      <c r="A78" s="29"/>
       <c r="B78" s="7"/>
       <c r="C78" s="8"/>
       <c r="D78" s="10" t="s">
@@ -2337,7 +2335,7 @@
       <c r="G78" s="10"/>
     </row>
     <row r="79" spans="1:7" ht="12.75">
-      <c r="A79" s="22"/>
+      <c r="A79" s="29"/>
       <c r="B79" s="7"/>
       <c r="C79" s="8"/>
       <c r="D79" s="10" t="s">
@@ -2350,7 +2348,7 @@
       <c r="G79" s="10"/>
     </row>
     <row r="80" spans="1:7" ht="12.75">
-      <c r="A80" s="22"/>
+      <c r="A80" s="29"/>
       <c r="B80" s="7"/>
       <c r="C80" s="8"/>
       <c r="D80" s="10" t="s">
@@ -2363,7 +2361,7 @@
       <c r="G80" s="10"/>
     </row>
     <row r="81" spans="1:7" ht="12.75">
-      <c r="A81" s="22"/>
+      <c r="A81" s="29"/>
       <c r="B81" s="7"/>
       <c r="C81" s="8"/>
       <c r="D81" s="9" t="s">
@@ -2376,7 +2374,7 @@
       <c r="G81" s="10"/>
     </row>
     <row r="82" spans="1:7" ht="12.75">
-      <c r="A82" s="22"/>
+      <c r="A82" s="29"/>
       <c r="B82" s="7"/>
       <c r="C82" s="8"/>
       <c r="D82" s="9" t="s">
@@ -2389,7 +2387,7 @@
       <c r="G82" s="10"/>
     </row>
     <row r="83" spans="1:7" ht="12.75">
-      <c r="A83" s="22"/>
+      <c r="A83" s="29"/>
       <c r="B83" s="7"/>
       <c r="C83" s="8"/>
       <c r="D83" s="9" t="s">
@@ -2402,7 +2400,7 @@
       <c r="G83" s="10"/>
     </row>
     <row r="84" spans="1:7" ht="12.75">
-      <c r="A84" s="22"/>
+      <c r="A84" s="29"/>
       <c r="B84" s="7"/>
       <c r="C84" s="8"/>
       <c r="D84" s="9" t="s">
@@ -2415,7 +2413,7 @@
       <c r="G84" s="10"/>
     </row>
     <row r="85" spans="1:7" ht="12.75">
-      <c r="A85" s="22"/>
+      <c r="A85" s="29"/>
       <c r="B85" s="7"/>
       <c r="C85" s="8"/>
       <c r="D85" s="9" t="s">
@@ -2428,7 +2426,7 @@
       <c r="G85" s="10"/>
     </row>
     <row r="86" spans="1:7" ht="12.75">
-      <c r="A86" s="22"/>
+      <c r="A86" s="29"/>
       <c r="B86" s="7"/>
       <c r="C86" s="8"/>
       <c r="D86" s="9" t="s">
@@ -2441,7 +2439,7 @@
       <c r="G86" s="10"/>
     </row>
     <row r="87" spans="1:7" ht="12.75">
-      <c r="A87" s="22"/>
+      <c r="A87" s="29"/>
       <c r="B87" s="7"/>
       <c r="C87" s="8"/>
       <c r="D87" s="9" t="s">
@@ -2454,7 +2452,7 @@
       <c r="G87" s="10"/>
     </row>
     <row r="88" spans="1:7" ht="25.5">
-      <c r="A88" s="22"/>
+      <c r="A88" s="29"/>
       <c r="B88" s="7"/>
       <c r="C88" s="8"/>
       <c r="D88" s="9" t="s">
@@ -2467,7 +2465,7 @@
       <c r="G88" s="10"/>
     </row>
     <row r="89" spans="1:7" ht="12.75">
-      <c r="A89" s="22"/>
+      <c r="A89" s="29"/>
       <c r="B89" s="7"/>
       <c r="C89" s="8"/>
       <c r="D89" s="9" t="s">
@@ -2480,7 +2478,7 @@
       <c r="G89" s="10"/>
     </row>
     <row r="90" spans="1:7" ht="12.75">
-      <c r="A90" s="22"/>
+      <c r="A90" s="29"/>
       <c r="B90" s="7"/>
       <c r="C90" s="8"/>
       <c r="D90" s="9" t="s">
@@ -2493,7 +2491,7 @@
       <c r="G90" s="10"/>
     </row>
     <row r="91" spans="1:7" ht="12.75">
-      <c r="A91" s="23"/>
+      <c r="A91" s="30"/>
       <c r="B91" s="7"/>
       <c r="C91" s="8"/>
       <c r="D91" s="9" t="s">
@@ -2506,22 +2504,22 @@
       <c r="G91" s="10"/>
     </row>
     <row r="92" spans="1:7" ht="12.75">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="28" t="s">
         <v>117</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="15" t="s">
+      <c r="C92" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="17"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="19"/>
     </row>
     <row r="93" spans="1:7" ht="12.75">
-      <c r="A93" s="22"/>
+      <c r="A93" s="29"/>
       <c r="B93" s="7"/>
       <c r="C93" s="8"/>
       <c r="D93" s="9" t="s">
@@ -2534,7 +2532,7 @@
       <c r="G93" s="10"/>
     </row>
     <row r="94" spans="1:7" ht="12.75">
-      <c r="A94" s="22"/>
+      <c r="A94" s="29"/>
       <c r="B94" s="7"/>
       <c r="C94" s="8"/>
       <c r="D94" s="10" t="s">
@@ -2547,7 +2545,7 @@
       <c r="G94" s="10"/>
     </row>
     <row r="95" spans="1:7" ht="12.75">
-      <c r="A95" s="22"/>
+      <c r="A95" s="29"/>
       <c r="B95" s="7"/>
       <c r="C95" s="8"/>
       <c r="D95" s="10" t="s">
@@ -2560,7 +2558,7 @@
       <c r="G95" s="10"/>
     </row>
     <row r="96" spans="1:7" ht="12.75">
-      <c r="A96" s="22"/>
+      <c r="A96" s="29"/>
       <c r="B96" s="7"/>
       <c r="C96" s="8"/>
       <c r="D96" s="10" t="s">
@@ -2573,7 +2571,7 @@
       <c r="G96" s="10"/>
     </row>
     <row r="97" spans="1:7" ht="12.75">
-      <c r="A97" s="22"/>
+      <c r="A97" s="29"/>
       <c r="B97" s="7"/>
       <c r="C97" s="8"/>
       <c r="D97" s="9" t="s">
@@ -2586,7 +2584,7 @@
       <c r="G97" s="10"/>
     </row>
     <row r="98" spans="1:7" ht="25.5">
-      <c r="A98" s="22"/>
+      <c r="A98" s="29"/>
       <c r="B98" s="7"/>
       <c r="C98" s="8"/>
       <c r="D98" s="9" t="s">
@@ -2599,7 +2597,7 @@
       <c r="G98" s="10"/>
     </row>
     <row r="99" spans="1:7" ht="12.75">
-      <c r="A99" s="22"/>
+      <c r="A99" s="29"/>
       <c r="B99" s="7"/>
       <c r="C99" s="8"/>
       <c r="D99" s="9" t="s">
@@ -2612,7 +2610,7 @@
       <c r="G99" s="10"/>
     </row>
     <row r="100" spans="1:7" ht="12.75">
-      <c r="A100" s="22"/>
+      <c r="A100" s="29"/>
       <c r="B100" s="7"/>
       <c r="C100" s="8"/>
       <c r="D100" s="9" t="s">
@@ -2625,7 +2623,7 @@
       <c r="G100" s="10"/>
     </row>
     <row r="101" spans="1:7" ht="25.5">
-      <c r="A101" s="22"/>
+      <c r="A101" s="29"/>
       <c r="B101" s="7"/>
       <c r="C101" s="8"/>
       <c r="D101" s="9" t="s">
@@ -2638,7 +2636,7 @@
       <c r="G101" s="10"/>
     </row>
     <row r="102" spans="1:7" ht="12.75">
-      <c r="A102" s="22"/>
+      <c r="A102" s="29"/>
       <c r="B102" s="7"/>
       <c r="C102" s="8"/>
       <c r="D102" s="9" t="s">
@@ -2649,7 +2647,7 @@
       <c r="G102" s="10"/>
     </row>
     <row r="103" spans="1:7" ht="25.5">
-      <c r="A103" s="22"/>
+      <c r="A103" s="29"/>
       <c r="B103" s="7"/>
       <c r="C103" s="8"/>
       <c r="D103" s="9" t="s">
@@ -2662,7 +2660,7 @@
       <c r="G103" s="10"/>
     </row>
     <row r="104" spans="1:7" ht="25.5">
-      <c r="A104" s="22"/>
+      <c r="A104" s="29"/>
       <c r="B104" s="7"/>
       <c r="C104" s="8"/>
       <c r="D104" s="9" t="s">
@@ -2675,7 +2673,7 @@
       <c r="G104" s="10"/>
     </row>
     <row r="105" spans="1:7" ht="25.5">
-      <c r="A105" s="22"/>
+      <c r="A105" s="29"/>
       <c r="B105" s="7"/>
       <c r="C105" s="8"/>
       <c r="D105" s="9" t="s">
@@ -2688,7 +2686,7 @@
       <c r="G105" s="10"/>
     </row>
     <row r="106" spans="1:7" ht="12.75">
-      <c r="A106" s="22"/>
+      <c r="A106" s="29"/>
       <c r="B106" s="7"/>
       <c r="C106" s="8"/>
       <c r="D106" s="9" t="s">
@@ -2701,7 +2699,7 @@
       <c r="G106" s="10"/>
     </row>
     <row r="107" spans="1:7" ht="25.5">
-      <c r="A107" s="22"/>
+      <c r="A107" s="29"/>
       <c r="B107" s="7"/>
       <c r="C107" s="8"/>
       <c r="D107" s="9" t="s">
@@ -2714,7 +2712,7 @@
       <c r="G107" s="10"/>
     </row>
     <row r="108" spans="1:7" ht="12.75">
-      <c r="A108" s="22"/>
+      <c r="A108" s="29"/>
       <c r="B108" s="7"/>
       <c r="C108" s="8"/>
       <c r="D108" s="9" t="s">
@@ -2725,7 +2723,7 @@
       <c r="G108" s="10"/>
     </row>
     <row r="109" spans="1:7" ht="12.75">
-      <c r="A109" s="22"/>
+      <c r="A109" s="29"/>
       <c r="B109" s="7"/>
       <c r="C109" s="8"/>
       <c r="D109" s="9" t="s">
@@ -2738,20 +2736,20 @@
       <c r="G109" s="10"/>
     </row>
     <row r="110" spans="1:7" ht="12.75">
-      <c r="A110" s="22"/>
+      <c r="A110" s="29"/>
       <c r="B110" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="C110" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="D110" s="16"/>
-      <c r="E110" s="16"/>
-      <c r="F110" s="16"/>
-      <c r="G110" s="17"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="19"/>
     </row>
     <row r="111" spans="1:7" ht="12.75">
-      <c r="A111" s="22"/>
+      <c r="A111" s="29"/>
       <c r="B111" s="7"/>
       <c r="C111" s="8"/>
       <c r="D111" s="9" t="s">
@@ -2764,7 +2762,7 @@
       <c r="G111" s="10"/>
     </row>
     <row r="112" spans="1:7" ht="12.75">
-      <c r="A112" s="22"/>
+      <c r="A112" s="29"/>
       <c r="B112" s="7"/>
       <c r="C112" s="8"/>
       <c r="D112" s="10" t="s">
@@ -2777,7 +2775,7 @@
       <c r="G112" s="10"/>
     </row>
     <row r="113" spans="1:7" ht="12.75">
-      <c r="A113" s="22"/>
+      <c r="A113" s="29"/>
       <c r="B113" s="7"/>
       <c r="C113" s="8"/>
       <c r="D113" s="9" t="s">
@@ -2790,7 +2788,7 @@
       <c r="G113" s="10"/>
     </row>
     <row r="114" spans="1:7" ht="12.75">
-      <c r="A114" s="22"/>
+      <c r="A114" s="29"/>
       <c r="B114" s="7"/>
       <c r="C114" s="8"/>
       <c r="D114" s="9" t="s">
@@ -2803,7 +2801,7 @@
       <c r="G114" s="10"/>
     </row>
     <row r="115" spans="1:7" ht="25.5">
-      <c r="A115" s="22"/>
+      <c r="A115" s="29"/>
       <c r="B115" s="7"/>
       <c r="C115" s="8"/>
       <c r="D115" s="9" t="s">
@@ -2816,7 +2814,7 @@
       <c r="G115" s="10"/>
     </row>
     <row r="116" spans="1:7" ht="12.75">
-      <c r="A116" s="22"/>
+      <c r="A116" s="29"/>
       <c r="B116" s="7"/>
       <c r="C116" s="8"/>
       <c r="D116" s="9" t="s">
@@ -2829,7 +2827,7 @@
       <c r="G116" s="10"/>
     </row>
     <row r="117" spans="1:7" ht="12.75">
-      <c r="A117" s="22"/>
+      <c r="A117" s="29"/>
       <c r="B117" s="7"/>
       <c r="C117" s="8"/>
       <c r="D117" s="9" t="s">
@@ -2842,7 +2840,7 @@
       <c r="G117" s="10"/>
     </row>
     <row r="118" spans="1:7" ht="12.75">
-      <c r="A118" s="22"/>
+      <c r="A118" s="29"/>
       <c r="B118" s="7"/>
       <c r="C118" s="8"/>
       <c r="D118" s="9" t="s">
@@ -2855,7 +2853,7 @@
       <c r="G118" s="10"/>
     </row>
     <row r="119" spans="1:7" ht="12.75">
-      <c r="A119" s="22"/>
+      <c r="A119" s="29"/>
       <c r="B119" s="7"/>
       <c r="C119" s="8"/>
       <c r="D119" s="9" t="s">
@@ -2868,7 +2866,7 @@
       <c r="G119" s="10"/>
     </row>
     <row r="120" spans="1:7" ht="12.75">
-      <c r="A120" s="22"/>
+      <c r="A120" s="29"/>
       <c r="B120" s="7"/>
       <c r="C120" s="8"/>
       <c r="D120" s="9" t="s">
@@ -2881,7 +2879,7 @@
       <c r="G120" s="10"/>
     </row>
     <row r="121" spans="1:7" ht="12.75">
-      <c r="A121" s="22"/>
+      <c r="A121" s="29"/>
       <c r="B121" s="7"/>
       <c r="C121" s="8"/>
       <c r="D121" s="9" t="s">
@@ -2892,7 +2890,7 @@
       <c r="G121" s="10"/>
     </row>
     <row r="122" spans="1:7" ht="12.75">
-      <c r="A122" s="22"/>
+      <c r="A122" s="29"/>
       <c r="B122" s="7"/>
       <c r="C122" s="8"/>
       <c r="D122" s="9" t="s">
@@ -2905,7 +2903,7 @@
       <c r="G122" s="10"/>
     </row>
     <row r="123" spans="1:7" ht="12.75">
-      <c r="A123" s="22"/>
+      <c r="A123" s="29"/>
       <c r="B123" s="7"/>
       <c r="C123" s="8"/>
       <c r="D123" s="9" t="s">
@@ -2982,15 +2980,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C70:G70"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="F2:F6"/>
-    <mergeCell ref="G2:G6"/>
     <mergeCell ref="C92:G92"/>
     <mergeCell ref="C110:G110"/>
     <mergeCell ref="A7:A25"/>
@@ -3007,6 +2996,15 @@
     <mergeCell ref="C51:G51"/>
     <mergeCell ref="C56:G56"/>
     <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="G2:G6"/>
   </mergeCells>
   <conditionalFormatting sqref="F8:F13 F15:F19 F21:F25 F27:F30 F32:F36 F38:F43 F45:F50 F52:F55 F57:F63 F65:F69 F71:F75 F77:F91 F93:F109 F111:F130">
     <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="passed">
